--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_04_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_04_Initial.xlsx
@@ -30,6 +30,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,44 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Cash</t>
   </si>
   <si>
-    <t>Accounts</t>
-  </si>
-  <si>
-    <t>Receivable</t>
-  </si>
-  <si>
-    <t>Payable</t>
-  </si>
-  <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>Retained</t>
-  </si>
-  <si>
-    <t>Earnings</t>
-  </si>
-  <si>
-    <t>Fees</t>
-  </si>
-  <si>
-    <t>Earned</t>
-  </si>
-  <si>
-    <t>Rent</t>
-  </si>
-  <si>
-    <t>Expense</t>
-  </si>
-  <si>
     <t>Assets</t>
   </si>
   <si>
@@ -96,12 +64,6 @@
     <t>=</t>
   </si>
   <si>
-    <t>Supplies</t>
-  </si>
-  <si>
-    <t>Issued stock for cash, $4,000</t>
-  </si>
-  <si>
     <t>Paid cash for rent, $2,800</t>
   </si>
   <si>
@@ -114,9 +76,6 @@
     <t>Sold to customers on account, $1,600</t>
   </si>
   <si>
-    <t>Purchased supplies on account, $400</t>
-  </si>
-  <si>
     <t>Purchased supplies on account, $800</t>
   </si>
   <si>
@@ -124,6 +83,34 @@
   </si>
   <si>
     <t>Received cash on account, $1,600</t>
+  </si>
+  <si>
+    <t>Retained Earnings</t>
+  </si>
+  <si>
+    <t>Accounts Receivable</t>
+  </si>
+  <si>
+    <t>Accounts Payable</t>
+  </si>
+  <si>
+    <t>Common 
+Stock</t>
+  </si>
+  <si>
+    <t>Fees Earned</t>
+  </si>
+  <si>
+    <t>Rent Expense</t>
+  </si>
+  <si>
+    <t>Supplies Expense</t>
+  </si>
+  <si>
+    <t>Issue stock for cash, $4000</t>
+  </si>
+  <si>
+    <t>Puchased supplies on account, $400</t>
   </si>
   <si>
     <t>Ending balances before closing</t>
@@ -133,12 +120,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0;\ \(#,##0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -158,20 +153,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -180,6 +162,48 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -190,7 +214,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -199,28 +223,142 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1" tint="0.499984740745262"/>
       </left>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1" tint="0.499984740745262"/>
       </left>
       <right/>
       <top/>
@@ -229,75 +367,181 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="23">
     <cellStyle name="Comma 2" xfId="7"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 2 2" xfId="6"/>
@@ -695,7 +939,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -703,368 +947,342 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O15"/>
+  <dimension ref="B2:N14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD73"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.83203125" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
     <col min="4" max="5" width="9.5" customWidth="1"/>
     <col min="6" max="6" width="3.5" customWidth="1"/>
     <col min="7" max="7" width="9.5" customWidth="1"/>
     <col min="8" max="8" width="3.6640625" customWidth="1"/>
     <col min="9" max="10" width="9.5" customWidth="1"/>
     <col min="11" max="11" width="3.5" customWidth="1"/>
-    <col min="12" max="12" width="1.5" hidden="1" customWidth="1"/>
-    <col min="13" max="15" width="9.5" customWidth="1"/>
-    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="12" max="14" width="9.5" customWidth="1"/>
+    <col min="15" max="15" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" thickBot="1">
-      <c r="C1" s="1"/>
-      <c r="D1" s="15" t="s">
+    <row r="2" spans="2:14" ht="15">
+      <c r="C2" s="6"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+    </row>
+    <row r="3" spans="2:14" ht="16" thickBot="1">
+      <c r="C3" s="8"/>
+      <c r="D3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="17"/>
+    </row>
+    <row r="4" spans="2:14" ht="45">
+      <c r="C4" s="12"/>
+      <c r="D4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="33" customHeight="1">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="2:14" ht="33" customHeight="1">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="2:14" ht="33" customHeight="1">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="2:14" ht="33" customHeight="1">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3">
+        <v>800</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="33" customHeight="1">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="2:14" ht="33" customHeight="1">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="2:14" ht="33" customHeight="1">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3">
+        <v>400</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="33" customHeight="1">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="15" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="2:14" ht="33" customHeight="1" thickBot="1">
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="15"/>
+      <c r="D13" s="23">
+        <v>1600</v>
+      </c>
+      <c r="E13" s="23">
+        <v>-1600</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
     </row>
-    <row r="2" spans="2:15">
-      <c r="C2" s="1"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="C3" s="1"/>
-      <c r="D3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="7">
-        <v>4000</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7">
-        <v>4000</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="8">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3600</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7">
-        <v>3600</v>
-      </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="8">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="7">
-        <v>-2800</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7">
-        <v>-2800</v>
-      </c>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="8">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7">
-        <v>800</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7">
-        <v>-800</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
+    <row r="14" spans="2:14" ht="33" customHeight="1">
+      <c r="C14" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7">
-        <v>1600</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7">
-        <v>1600</v>
-      </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="8">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="7">
-        <v>-700</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7">
-        <v>-700</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="8">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
-        <v>400</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7">
-        <v>-400</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="8">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7">
-        <v>2100</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7">
-        <v>2100</v>
-      </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="8">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1600</v>
-      </c>
-      <c r="E12" s="7">
-        <v>-1600</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" spans="2:15">
-      <c r="C15" s="14"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="N1:O1"/>
+  <mergeCells count="5">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="L2:N2"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="59" orientation="portrait"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="16" max="1048575" man="1"/>
+  </colBreaks>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_04_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_04_Initial.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD70E85F-4614-420D-B3EF-0A38A20AE09B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphics 1 to 11" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -132,7 +139,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\ \(#,##0\)"/>
   </numFmts>
@@ -700,7 +707,7 @@
     <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="135"/>
+    <cellStyle name="Normal 2" xfId="135" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1042,11 +1049,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="P13" sqref="O13:Q13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1159,13 +1166,17 @@
       <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="17">
+        <v>4000</v>
+      </c>
       <c r="D4" s="19"/>
       <c r="E4" s="17"/>
       <c r="F4" s="19"/>
       <c r="G4" s="17"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="17"/>
+      <c r="I4" s="17">
+        <v>4000</v>
+      </c>
       <c r="J4" s="20"/>
       <c r="K4" s="17"/>
       <c r="L4" s="19"/>
@@ -1182,7 +1193,9 @@
       <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="17">
+        <v>3600</v>
+      </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17"/>
       <c r="F5" s="19"/>
@@ -1192,7 +1205,9 @@
       <c r="J5" s="20"/>
       <c r="K5" s="17"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="17"/>
+      <c r="M5" s="17">
+        <v>3600</v>
+      </c>
       <c r="N5" s="5"/>
       <c r="O5" s="17"/>
       <c r="P5" s="6"/>
@@ -1205,7 +1220,9 @@
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <v>-2800</v>
+      </c>
       <c r="D6" s="19"/>
       <c r="E6" s="17"/>
       <c r="F6" s="19"/>
@@ -1217,7 +1234,9 @@
       <c r="L6" s="19"/>
       <c r="M6" s="17"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="17"/>
+      <c r="O6" s="17">
+        <v>-2800</v>
+      </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="17"/>
     </row>
@@ -1232,7 +1251,9 @@
       <c r="D7" s="19"/>
       <c r="E7" s="17"/>
       <c r="F7" s="19"/>
-      <c r="G7" s="17"/>
+      <c r="G7" s="17">
+        <v>800</v>
+      </c>
       <c r="H7" s="19"/>
       <c r="I7" s="17"/>
       <c r="J7" s="20"/>
@@ -1242,7 +1263,9 @@
       <c r="N7" s="5"/>
       <c r="O7" s="17"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="17"/>
+      <c r="Q7" s="17">
+        <v>-800</v>
+      </c>
     </row>
     <row r="8" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
@@ -1253,7 +1276,9 @@
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="17">
+        <v>1600</v>
+      </c>
       <c r="F8" s="19"/>
       <c r="G8" s="17"/>
       <c r="H8" s="19"/>
@@ -1261,7 +1286,9 @@
       <c r="J8" s="20"/>
       <c r="K8" s="17"/>
       <c r="L8" s="19"/>
-      <c r="M8" s="17"/>
+      <c r="M8" s="17">
+        <v>1600</v>
+      </c>
       <c r="N8" s="5"/>
       <c r="O8" s="17"/>
       <c r="P8" s="6"/>
@@ -1274,11 +1301,15 @@
       <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="17">
+        <v>-700</v>
+      </c>
       <c r="D9" s="19"/>
       <c r="E9" s="17"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="17"/>
+      <c r="G9" s="17">
+        <v>-700</v>
+      </c>
       <c r="H9" s="19"/>
       <c r="I9" s="17"/>
       <c r="J9" s="20"/>
@@ -1301,7 +1332,9 @@
       <c r="D10" s="19"/>
       <c r="E10" s="17"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="17"/>
+      <c r="G10" s="17">
+        <v>400</v>
+      </c>
       <c r="H10" s="19"/>
       <c r="I10" s="17"/>
       <c r="J10" s="20"/>
@@ -1311,7 +1344,9 @@
       <c r="N10" s="5"/>
       <c r="O10" s="17"/>
       <c r="P10" s="6"/>
-      <c r="Q10" s="17"/>
+      <c r="Q10" s="17">
+        <v>-400</v>
+      </c>
     </row>
     <row r="11" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
@@ -1322,7 +1357,9 @@
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="17"/>
+      <c r="E11" s="17">
+        <v>2100</v>
+      </c>
       <c r="F11" s="19"/>
       <c r="G11" s="17"/>
       <c r="H11" s="19"/>
@@ -1330,7 +1367,9 @@
       <c r="J11" s="20"/>
       <c r="K11" s="17"/>
       <c r="L11" s="19"/>
-      <c r="M11" s="17"/>
+      <c r="M11" s="17">
+        <v>2100</v>
+      </c>
       <c r="N11" s="5"/>
       <c r="O11" s="17"/>
       <c r="P11" s="6"/>
@@ -1343,9 +1382,13 @@
       <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="17">
+        <v>1600</v>
+      </c>
       <c r="D12" s="21"/>
-      <c r="E12" s="17"/>
+      <c r="E12" s="17">
+        <v>-1600</v>
+      </c>
       <c r="F12" s="21"/>
       <c r="G12" s="17"/>
       <c r="H12" s="21"/>
@@ -1374,9 +1417,6 @@
       <c r="M13" s="24"/>
       <c r="O13" s="17"/>
       <c r="Q13" s="17"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_04_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_04_Initial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD70E85F-4614-420D-B3EF-0A38A20AE09B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A51BFE-0433-4AB8-AA15-B8EF4604327B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,7 +492,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -534,9 +534,6 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1053,7 +1050,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD1048576"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1070,32 +1067,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="25"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
       <c r="L1" s="10"/>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1105,24 +1102,24 @@
       <c r="H2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
       <c r="L2" s="10"/>
       <c r="M2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="8"/>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
     <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
@@ -1169,17 +1166,17 @@
       <c r="C4" s="17">
         <v>4000</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="17"/>
-      <c r="F4" s="19"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="17"/>
-      <c r="H4" s="19"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="17">
         <v>4000</v>
       </c>
-      <c r="J4" s="20"/>
+      <c r="J4" s="19"/>
       <c r="K4" s="17"/>
-      <c r="L4" s="19"/>
+      <c r="L4" s="18"/>
       <c r="M4" s="17"/>
       <c r="N4" s="5"/>
       <c r="O4" s="17"/>
@@ -1196,15 +1193,15 @@
       <c r="C5" s="17">
         <v>3600</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="17"/>
-      <c r="F5" s="19"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="19"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="17"/>
-      <c r="J5" s="20"/>
+      <c r="J5" s="19"/>
       <c r="K5" s="17"/>
-      <c r="L5" s="19"/>
+      <c r="L5" s="18"/>
       <c r="M5" s="17">
         <v>3600</v>
       </c>
@@ -1223,15 +1220,15 @@
       <c r="C6" s="17">
         <v>-2800</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="17"/>
-      <c r="F6" s="19"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="19"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="17"/>
-      <c r="J6" s="20"/>
+      <c r="J6" s="19"/>
       <c r="K6" s="17"/>
-      <c r="L6" s="19"/>
+      <c r="L6" s="18"/>
       <c r="M6" s="17"/>
       <c r="N6" s="5"/>
       <c r="O6" s="17">
@@ -1248,17 +1245,17 @@
         <v>20</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="19"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="19"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="17">
         <v>800</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="17"/>
-      <c r="J7" s="20"/>
+      <c r="J7" s="19"/>
       <c r="K7" s="17"/>
-      <c r="L7" s="19"/>
+      <c r="L7" s="18"/>
       <c r="M7" s="17"/>
       <c r="N7" s="5"/>
       <c r="O7" s="17"/>
@@ -1275,17 +1272,17 @@
         <v>29</v>
       </c>
       <c r="C8" s="17"/>
-      <c r="D8" s="19"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="17">
         <v>1600</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="17"/>
-      <c r="H8" s="19"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="17"/>
-      <c r="J8" s="20"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="17"/>
-      <c r="L8" s="19"/>
+      <c r="L8" s="18"/>
       <c r="M8" s="17">
         <v>1600</v>
       </c>
@@ -1304,17 +1301,17 @@
       <c r="C9" s="17">
         <v>-700</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="19"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="17">
         <v>-700</v>
       </c>
-      <c r="H9" s="19"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="17"/>
-      <c r="J9" s="20"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="17"/>
-      <c r="L9" s="19"/>
+      <c r="L9" s="18"/>
       <c r="M9" s="17"/>
       <c r="N9" s="5"/>
       <c r="O9" s="17"/>
@@ -1329,17 +1326,17 @@
         <v>30</v>
       </c>
       <c r="C10" s="17"/>
-      <c r="D10" s="19"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="19"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="17">
         <v>400</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="17"/>
-      <c r="J10" s="20"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="17"/>
-      <c r="L10" s="19"/>
+      <c r="L10" s="18"/>
       <c r="M10" s="17"/>
       <c r="N10" s="5"/>
       <c r="O10" s="17"/>
@@ -1356,17 +1353,17 @@
         <v>31</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="19"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="17">
         <v>2100</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="19"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="20"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="17"/>
-      <c r="L11" s="19"/>
+      <c r="L11" s="18"/>
       <c r="M11" s="17">
         <v>2100</v>
       </c>
@@ -1385,36 +1382,36 @@
       <c r="C12" s="17">
         <v>1600</v>
       </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="17">
         <v>-1600</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="21"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="20"/>
+      <c r="J12" s="19"/>
       <c r="K12" s="17"/>
-      <c r="L12" s="21"/>
+      <c r="L12" s="20"/>
       <c r="M12" s="17"/>
       <c r="O12" s="17"/>
       <c r="Q12" s="17"/>
     </row>
     <row r="13" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="24"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="23"/>
       <c r="O13" s="17"/>
       <c r="Q13" s="17"/>
     </row>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_04_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_04_Initial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A51BFE-0433-4AB8-AA15-B8EF4604327B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911DBC7E-7E80-4240-8568-4F2C501E7889}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,9 +23,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -140,9 +137,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0;\ \(#,##0\)"/>
-  </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -245,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -304,49 +298,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -492,7 +443,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -535,16 +486,7 @@
     <xf numFmtId="37" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -560,6 +502,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -1050,7 +1004,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1067,32 +1021,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="24"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
       <c r="L1" s="10"/>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24"/>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1102,24 +1056,24 @@
       <c r="H2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
       <c r="L2" s="10"/>
       <c r="M2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="8"/>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
@@ -1166,17 +1120,17 @@
       <c r="C4" s="17">
         <v>4000</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="17">
         <v>4000</v>
       </c>
-      <c r="J4" s="19"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
+      <c r="L4" s="28"/>
       <c r="M4" s="17"/>
       <c r="N4" s="5"/>
       <c r="O4" s="17"/>
@@ -1193,15 +1147,15 @@
       <c r="C5" s="17">
         <v>3600</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="17"/>
-      <c r="J5" s="19"/>
+      <c r="J5" s="18"/>
       <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
+      <c r="L5" s="28"/>
       <c r="M5" s="17">
         <v>3600</v>
       </c>
@@ -1220,15 +1174,15 @@
       <c r="C6" s="17">
         <v>-2800</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="17"/>
-      <c r="J6" s="19"/>
+      <c r="J6" s="18"/>
       <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
+      <c r="L6" s="28"/>
       <c r="M6" s="17"/>
       <c r="N6" s="5"/>
       <c r="O6" s="17">
@@ -1245,17 +1199,17 @@
         <v>20</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="17">
         <v>800</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="17"/>
-      <c r="J7" s="19"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
+      <c r="L7" s="28"/>
       <c r="M7" s="17"/>
       <c r="N7" s="5"/>
       <c r="O7" s="17"/>
@@ -1272,17 +1226,17 @@
         <v>29</v>
       </c>
       <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="17">
         <v>1600</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="17"/>
-      <c r="J8" s="19"/>
+      <c r="J8" s="18"/>
       <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="17">
         <v>1600</v>
       </c>
@@ -1301,17 +1255,17 @@
       <c r="C9" s="17">
         <v>-700</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="17">
         <v>-700</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="17"/>
-      <c r="J9" s="19"/>
+      <c r="J9" s="18"/>
       <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
+      <c r="L9" s="28"/>
       <c r="M9" s="17"/>
       <c r="N9" s="5"/>
       <c r="O9" s="17"/>
@@ -1326,17 +1280,17 @@
         <v>30</v>
       </c>
       <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="17">
         <v>400</v>
       </c>
-      <c r="H10" s="18"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="17"/>
-      <c r="J10" s="19"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
+      <c r="L10" s="28"/>
       <c r="M10" s="17"/>
       <c r="N10" s="5"/>
       <c r="O10" s="17"/>
@@ -1353,17 +1307,17 @@
         <v>31</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="17">
         <v>2100</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="19"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="17"/>
-      <c r="L11" s="18"/>
+      <c r="L11" s="28"/>
       <c r="M11" s="17">
         <v>2100</v>
       </c>
@@ -1372,7 +1326,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>26</v>
       </c>
@@ -1382,17 +1336,17 @@
       <c r="C12" s="17">
         <v>1600</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="17">
         <v>-1600</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="20"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="19"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="17"/>
-      <c r="L12" s="20"/>
+      <c r="L12" s="28"/>
       <c r="M12" s="17"/>
       <c r="O12" s="17"/>
       <c r="Q12" s="17"/>
@@ -1401,17 +1355,17 @@
       <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="23"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="20"/>
       <c r="O13" s="17"/>
       <c r="Q13" s="17"/>
     </row>
@@ -1429,10 +1383,5 @@
   <ignoredErrors>
     <ignoredError sqref="A4:A6 A7:A12" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_04_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_04_Initial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911DBC7E-7E80-4240-8568-4F2C501E7889}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D11FFAE-9EF6-44D6-91B1-28778E9DFCB5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,6 +492,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -502,18 +514,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -1021,32 +1021,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="21"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
       <c r="L1" s="10"/>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
     </row>
     <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1056,24 +1056,24 @@
       <c r="H2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
       <c r="L2" s="10"/>
       <c r="M2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="8"/>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
     </row>
     <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
@@ -1120,17 +1120,17 @@
       <c r="C4" s="17">
         <v>4000</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="17"/>
-      <c r="F4" s="26"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="17"/>
-      <c r="H4" s="25"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="17">
         <v>4000</v>
       </c>
       <c r="J4" s="18"/>
       <c r="K4" s="17"/>
-      <c r="L4" s="28"/>
+      <c r="L4" s="24"/>
       <c r="M4" s="17"/>
       <c r="N4" s="5"/>
       <c r="O4" s="17"/>
@@ -1147,15 +1147,15 @@
       <c r="C5" s="17">
         <v>3600</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="17"/>
-      <c r="F5" s="26"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="25"/>
+      <c r="H5" s="21"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
       <c r="K5" s="17"/>
-      <c r="L5" s="28"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="17">
         <v>3600</v>
       </c>
@@ -1174,15 +1174,15 @@
       <c r="C6" s="17">
         <v>-2800</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="17"/>
-      <c r="F6" s="26"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="25"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="17"/>
       <c r="J6" s="18"/>
       <c r="K6" s="17"/>
-      <c r="L6" s="28"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="17"/>
       <c r="N6" s="5"/>
       <c r="O6" s="17">
@@ -1199,17 +1199,17 @@
         <v>20</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="26"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="17">
         <v>800</v>
       </c>
-      <c r="H7" s="25"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="17"/>
       <c r="J7" s="18"/>
       <c r="K7" s="17"/>
-      <c r="L7" s="28"/>
+      <c r="L7" s="24"/>
       <c r="M7" s="17"/>
       <c r="N7" s="5"/>
       <c r="O7" s="17"/>
@@ -1226,17 +1226,17 @@
         <v>29</v>
       </c>
       <c r="C8" s="17"/>
-      <c r="D8" s="27"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="17">
         <v>1600</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="22"/>
       <c r="G8" s="17"/>
-      <c r="H8" s="25"/>
+      <c r="H8" s="21"/>
       <c r="I8" s="17"/>
       <c r="J8" s="18"/>
       <c r="K8" s="17"/>
-      <c r="L8" s="28"/>
+      <c r="L8" s="24"/>
       <c r="M8" s="17">
         <v>1600</v>
       </c>
@@ -1255,17 +1255,17 @@
       <c r="C9" s="17">
         <v>-700</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="26"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="17">
         <v>-700</v>
       </c>
-      <c r="H9" s="25"/>
+      <c r="H9" s="21"/>
       <c r="I9" s="17"/>
       <c r="J9" s="18"/>
       <c r="K9" s="17"/>
-      <c r="L9" s="28"/>
+      <c r="L9" s="24"/>
       <c r="M9" s="17"/>
       <c r="N9" s="5"/>
       <c r="O9" s="17"/>
@@ -1280,17 +1280,17 @@
         <v>30</v>
       </c>
       <c r="C10" s="17"/>
-      <c r="D10" s="27"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="26"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="17">
         <v>400</v>
       </c>
-      <c r="H10" s="25"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="17"/>
       <c r="J10" s="18"/>
       <c r="K10" s="17"/>
-      <c r="L10" s="28"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="17"/>
       <c r="N10" s="5"/>
       <c r="O10" s="17"/>
@@ -1307,17 +1307,17 @@
         <v>31</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="17">
         <v>2100</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="25"/>
+      <c r="H11" s="21"/>
       <c r="I11" s="17"/>
       <c r="J11" s="18"/>
       <c r="K11" s="17"/>
-      <c r="L11" s="28"/>
+      <c r="L11" s="24"/>
       <c r="M11" s="17">
         <v>2100</v>
       </c>
@@ -1336,17 +1336,17 @@
       <c r="C12" s="17">
         <v>1600</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="17">
         <v>-1600</v>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="25"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="17"/>
       <c r="J12" s="18"/>
       <c r="K12" s="17"/>
-      <c r="L12" s="28"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="17"/>
       <c r="O12" s="17"/>
       <c r="Q12" s="17"/>
@@ -1356,15 +1356,15 @@
         <v>33</v>
       </c>
       <c r="C13" s="20"/>
-      <c r="D13" s="27"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="26"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="25"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="20"/>
       <c r="J13" s="19"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="28"/>
+      <c r="L13" s="24"/>
       <c r="M13" s="20"/>
       <c r="O13" s="17"/>
       <c r="Q13" s="17"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_04_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_04_Initial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D11FFAE-9EF6-44D6-91B1-28778E9DFCB5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38747F62-00D0-42A4-B936-E0AB6626F1A9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_04_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_04_Initial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38747F62-00D0-42A4-B936-E0AB6626F1A9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21DAF93-B748-4D46-9E65-E9388E986243}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1001,9 +1001,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1020,7 +1020,7 @@
     <col min="16" max="16" width="1.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="25"/>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -1039,8 +1039,9 @@
       <c r="O1" s="27"/>
       <c r="P1" s="27"/>
       <c r="Q1" s="27"/>
+      <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="25"/>
       <c r="C2" s="26" t="s">
         <v>0</v>
@@ -1071,8 +1072,9 @@
       </c>
       <c r="P2" s="27"/>
       <c r="Q2" s="27"/>
+      <c r="R2" s="8"/>
     </row>
-    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25"/>
       <c r="C3" s="11" t="s">
         <v>7</v>
@@ -1109,8 +1111,9 @@
       <c r="Q3" s="11" t="s">
         <v>14</v>
       </c>
+      <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>23</v>
       </c>
@@ -1136,8 +1139,9 @@
       <c r="O4" s="17"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="17"/>
+      <c r="R4" s="11"/>
     </row>
-    <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>22</v>
       </c>
@@ -1163,8 +1167,9 @@
       <c r="O5" s="17"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="17"/>
+      <c r="R5" s="11"/>
     </row>
-    <row r="6" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>15</v>
       </c>
@@ -1190,8 +1195,9 @@
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="17"/>
+      <c r="R6" s="11"/>
     </row>
-    <row r="7" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>16</v>
       </c>
@@ -1217,8 +1223,9 @@
       <c r="Q7" s="17">
         <v>-800</v>
       </c>
+      <c r="R7" s="11"/>
     </row>
-    <row r="8" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>24</v>
       </c>
@@ -1244,8 +1251,9 @@
       <c r="O8" s="17"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="17"/>
+      <c r="R8" s="11"/>
     </row>
-    <row r="9" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>17</v>
       </c>
@@ -1271,8 +1279,9 @@
       <c r="O9" s="17"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="17"/>
+      <c r="R9" s="11"/>
     </row>
-    <row r="10" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>18</v>
       </c>
@@ -1298,8 +1307,9 @@
       <c r="Q10" s="17">
         <v>-400</v>
       </c>
+      <c r="R10" s="11"/>
     </row>
-    <row r="11" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>25</v>
       </c>
@@ -1325,8 +1335,9 @@
       <c r="O11" s="17"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="17"/>
+      <c r="R11" s="11"/>
     </row>
-    <row r="12" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>26</v>
       </c>
@@ -1350,8 +1361,9 @@
       <c r="M12" s="17"/>
       <c r="O12" s="17"/>
       <c r="Q12" s="17"/>
+      <c r="R12" s="11"/>
     </row>
-    <row r="13" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
@@ -1368,6 +1380,26 @@
       <c r="M13" s="20"/>
       <c r="O13" s="17"/>
       <c r="Q13" s="17"/>
+      <c r="R13" s="11"/>
+    </row>
+    <row r="14" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_04_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_04_Initial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21DAF93-B748-4D46-9E65-E9388E986243}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A115D635-E225-4E52-8ED3-CD377A72B258}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -248,35 +248,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -298,6 +274,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFABF8F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFABF8F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFABF8F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFABF8F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFABF8F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFABF8F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -443,7 +501,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -457,7 +515,7 @@
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -470,27 +528,15 @@
     <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="5" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="3" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="3" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -503,13 +549,43 @@
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="7" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="9" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="11" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -664,6 +740,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
+      <color rgb="FFFABF8F"/>
       <color rgb="FFFEF1E6"/>
       <color rgb="FFFEF4EC"/>
     </mruColors>
@@ -1003,7 +1080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1018,36 +1095,37 @@
     <col min="12" max="12" width="2.625" style="1" customWidth="1"/>
     <col min="14" max="14" width="1.875" customWidth="1"/>
     <col min="16" max="16" width="1.375" customWidth="1"/>
+    <col min="18" max="18" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="25"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
       <c r="L1" s="10"/>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
       <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1057,30 +1135,30 @@
       <c r="H2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
       <c r="L2" s="10"/>
       <c r="M2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="8"/>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
       <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="12"/>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="11" t="s">
@@ -1092,309 +1170,309 @@
       <c r="H3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="25" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="11"/>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="11" t="s">
+      <c r="L3" s="13"/>
+      <c r="M3" s="23" t="s">
         <v>12</v>
       </c>
       <c r="N3" s="11"/>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="25" t="s">
         <v>13</v>
       </c>
       <c r="P3" s="11"/>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="25" t="s">
         <v>14</v>
       </c>
       <c r="R3" s="11"/>
     </row>
     <row r="4" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="21">
         <v>4000</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="17">
+      <c r="D4" s="19"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="21">
         <v>4000</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="17"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="21"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="17"/>
+      <c r="O4" s="21"/>
       <c r="P4" s="6"/>
-      <c r="Q4" s="17"/>
+      <c r="Q4" s="21"/>
       <c r="R4" s="11"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="22">
         <v>3600</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="17">
+      <c r="D5" s="19"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="22">
         <v>3600</v>
       </c>
       <c r="N5" s="5"/>
-      <c r="O5" s="17"/>
+      <c r="O5" s="22"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="17"/>
+      <c r="Q5" s="22"/>
       <c r="R5" s="11"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="22">
         <v>-2800</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="17"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="17">
+      <c r="O6" s="22">
         <v>-2800</v>
       </c>
       <c r="P6" s="6"/>
-      <c r="Q6" s="17"/>
+      <c r="Q6" s="22"/>
       <c r="R6" s="11"/>
     </row>
     <row r="7" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="17">
+      <c r="C7" s="22"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="22">
         <v>800</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="22"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="17"/>
+      <c r="O7" s="22"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="17">
+      <c r="Q7" s="22">
         <v>-800</v>
       </c>
       <c r="R7" s="11"/>
     </row>
     <row r="8" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="17">
+      <c r="C8" s="22"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="22">
         <v>1600</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="17">
+      <c r="F8" s="18"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="22">
         <v>1600</v>
       </c>
       <c r="N8" s="5"/>
-      <c r="O8" s="17"/>
+      <c r="O8" s="22"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="17"/>
+      <c r="Q8" s="22"/>
       <c r="R8" s="11"/>
     </row>
     <row r="9" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="22">
         <v>-700</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="17">
+      <c r="D9" s="19"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="22">
         <v>-700</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="22"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="17"/>
+      <c r="O9" s="22"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="17"/>
+      <c r="Q9" s="22"/>
       <c r="R9" s="11"/>
     </row>
     <row r="10" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="17">
+      <c r="C10" s="22"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="22">
         <v>400</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="22"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="17"/>
+      <c r="O10" s="22"/>
       <c r="P10" s="6"/>
-      <c r="Q10" s="17">
+      <c r="Q10" s="22">
         <v>-400</v>
       </c>
       <c r="R10" s="11"/>
     </row>
     <row r="11" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="17">
+      <c r="C11" s="21"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="22">
         <v>2100</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="17">
+      <c r="F11" s="18"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="22">
         <v>2100</v>
       </c>
       <c r="N11" s="5"/>
-      <c r="O11" s="17"/>
+      <c r="O11" s="22"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="17"/>
+      <c r="Q11" s="22"/>
       <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="22">
         <v>1600</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="17">
+      <c r="D12" s="19"/>
+      <c r="E12" s="22">
         <v>-1600</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="Q12" s="22"/>
       <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="20"/>
-      <c r="O13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="28"/>
+      <c r="O13" s="27"/>
+      <c r="Q13" s="27"/>
       <c r="R13" s="11"/>
     </row>
     <row r="14" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="I14" s="29"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="M14" s="29"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_04_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_04_Initial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A115D635-E225-4E52-8ED3-CD377A72B258}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F136B65-9DC4-334B-B7BB-3483233C2E1A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphics 1 to 11" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Assets</t>
   </si>
@@ -501,7 +500,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -590,6 +589,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -1081,24 +1083,24 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="38.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="1.375" customWidth="1"/>
-    <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.625" customWidth="1"/>
-    <col min="10" max="10" width="1.375" customWidth="1"/>
-    <col min="12" max="12" width="2.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" customWidth="1"/>
-    <col min="16" max="16" width="1.375" customWidth="1"/>
-    <col min="18" max="18" width="4.625" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="1.33203125" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="1.33203125" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" customWidth="1"/>
+    <col min="16" max="16" width="1.33203125" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="31"/>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -1110,16 +1112,14 @@
       <c r="J1" s="34"/>
       <c r="K1" s="34"/>
       <c r="L1" s="10"/>
-      <c r="M1" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="31"/>
       <c r="C2" s="32" t="s">
         <v>0</v>
@@ -1152,7 +1152,7 @@
       <c r="Q2" s="33"/>
       <c r="R2" s="8"/>
     </row>
-    <row r="3" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="31"/>
       <c r="C3" s="23" t="s">
         <v>7</v>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>23</v>
       </c>
@@ -1219,7 +1219,7 @@
       <c r="Q4" s="21"/>
       <c r="R4" s="11"/>
     </row>
-    <row r="5" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
@@ -1247,7 +1247,7 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="11"/>
     </row>
-    <row r="6" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>15</v>
       </c>
@@ -1269,13 +1269,13 @@
       <c r="M6" s="22"/>
       <c r="N6" s="5"/>
       <c r="O6" s="22">
-        <v>-2800</v>
+        <v>2800</v>
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="11"/>
     </row>
-    <row r="7" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>16</v>
       </c>
@@ -1299,11 +1299,11 @@
       <c r="O7" s="22"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="22">
-        <v>-800</v>
+        <v>800</v>
       </c>
       <c r="R7" s="11"/>
     </row>
-    <row r="8" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>24</v>
       </c>
@@ -1331,7 +1331,7 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="11"/>
     </row>
-    <row r="9" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
@@ -1359,7 +1359,7 @@
       <c r="Q9" s="22"/>
       <c r="R9" s="11"/>
     </row>
-    <row r="10" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>18</v>
       </c>
@@ -1383,11 +1383,11 @@
       <c r="O10" s="22"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="22">
-        <v>-400</v>
+        <v>400</v>
       </c>
       <c r="R10" s="11"/>
     </row>
-    <row r="11" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>25</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="Q11" s="22"/>
       <c r="R11" s="11"/>
     </row>
-    <row r="12" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>26</v>
       </c>
@@ -1441,7 +1441,7 @@
       <c r="Q12" s="22"/>
       <c r="R12" s="11"/>
     </row>
-    <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
@@ -1460,7 +1460,7 @@
       <c r="Q13" s="27"/>
       <c r="R13" s="11"/>
     </row>
-    <row r="14" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="29"/>
       <c r="D14" s="4"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_04_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_04_Initial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F136B65-9DC4-334B-B7BB-3483233C2E1A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA2DCF3-54C8-479A-8BDC-3534A9427845}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphics 1 to 11" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -111,9 +112,6 @@
     <t>9.</t>
   </si>
   <si>
-    <t>Issue stock for cash, $4000</t>
-  </si>
-  <si>
     <t>Sold to customers for cash, $3,600</t>
   </si>
   <si>
@@ -130,6 +128,9 @@
   </si>
   <si>
     <t>Ending balances before closing</t>
+  </si>
+  <si>
+    <t>Issue stock for cash, $4,000</t>
   </si>
 </sst>
 </file>
@@ -1083,24 +1084,24 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="2" max="2" width="38.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="1.33203125" customWidth="1"/>
-    <col min="6" max="6" width="2.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" customWidth="1"/>
-    <col min="10" max="10" width="1.33203125" customWidth="1"/>
-    <col min="12" max="12" width="2.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" customWidth="1"/>
-    <col min="16" max="16" width="1.33203125" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="38.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="1.375" customWidth="1"/>
+    <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.625" customWidth="1"/>
+    <col min="10" max="10" width="1.375" customWidth="1"/>
+    <col min="12" max="12" width="2.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.875" customWidth="1"/>
+    <col min="16" max="16" width="1.375" customWidth="1"/>
+    <col min="18" max="18" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="31"/>
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
@@ -1119,7 +1120,7 @@
       <c r="Q1" s="35"/>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="31"/>
       <c r="C2" s="32" t="s">
         <v>0</v>
@@ -1152,7 +1153,7 @@
       <c r="Q2" s="33"/>
       <c r="R2" s="8"/>
     </row>
-    <row r="3" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="31"/>
       <c r="C3" s="23" t="s">
         <v>7</v>
@@ -1191,12 +1192,12 @@
       </c>
       <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C4" s="21">
         <v>4000</v>
@@ -1219,12 +1220,12 @@
       <c r="Q4" s="21"/>
       <c r="R4" s="11"/>
     </row>
-    <row r="5" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="22">
         <v>3600</v>
@@ -1247,7 +1248,7 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="11"/>
     </row>
-    <row r="6" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>15</v>
       </c>
@@ -1275,7 +1276,7 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="11"/>
     </row>
-    <row r="7" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>16</v>
       </c>
@@ -1303,12 +1304,12 @@
       </c>
       <c r="R7" s="11"/>
     </row>
-    <row r="8" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="19"/>
@@ -1331,7 +1332,7 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="11"/>
     </row>
-    <row r="9" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
@@ -1359,12 +1360,12 @@
       <c r="Q9" s="22"/>
       <c r="R9" s="11"/>
     </row>
-    <row r="10" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="19"/>
@@ -1387,12 +1388,12 @@
       </c>
       <c r="R10" s="11"/>
     </row>
-    <row r="11" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="19"/>
@@ -1415,12 +1416,12 @@
       <c r="Q11" s="22"/>
       <c r="R11" s="11"/>
     </row>
-    <row r="12" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="22">
         <v>1600</v>
@@ -1441,9 +1442,9 @@
       <c r="Q12" s="22"/>
       <c r="R12" s="11"/>
     </row>
-    <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="19"/>
@@ -1460,7 +1461,7 @@
       <c r="Q13" s="27"/>
       <c r="R13" s="11"/>
     </row>
-    <row r="14" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="29"/>
       <c r="D14" s="4"/>
